--- a/teamSprintSheetPROJ5.xlsx
+++ b/teamSprintSheetPROJ5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jordanchen/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D59555C9-8B1A-574A-9A71-4E9C499EF201}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{627AF1CA-8C3C-954B-8DC4-FA3B3BAD0BE3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="460" windowWidth="27640" windowHeight="16320" xr2:uid="{295B521D-40CD-0741-A7F0-C29826591B86}"/>
+    <workbookView xWindow="440" yWindow="460" windowWidth="27640" windowHeight="16320" xr2:uid="{295B521D-40CD-0741-A7F0-C29826591B86}"/>
   </bookViews>
   <sheets>
     <sheet name="April 1" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
   <si>
     <t>Action Item</t>
   </si>
@@ -92,31 +92,55 @@
     <t>Project: 5</t>
   </si>
   <si>
-    <t>Week Of:  April 15 - 19, 2019</t>
-  </si>
-  <si>
     <t>Game Logic</t>
   </si>
   <si>
-    <t>Networking features</t>
-  </si>
-  <si>
-    <t>GUI elements</t>
-  </si>
-  <si>
     <t>Configuring game scenes and adding addition features</t>
   </si>
   <si>
-    <t>NA</t>
-  </si>
-  <si>
-    <t>Started some networking logic</t>
-  </si>
-  <si>
-    <t>Will need to start and implement</t>
-  </si>
-  <si>
-    <t>Continue working on it</t>
+    <t>Week Of:  April 22 - 26, 2019</t>
+  </si>
+  <si>
+    <t>GUI elements and Enchancing certain elements</t>
+  </si>
+  <si>
+    <t>Networking features and connection between server and Clients</t>
+  </si>
+  <si>
+    <t>Learn Node JS</t>
+  </si>
+  <si>
+    <t>Start Server for Game</t>
+  </si>
+  <si>
+    <t>Learn Node JS and HTML</t>
+  </si>
+  <si>
+    <t>Decide how Tank will function in game</t>
+  </si>
+  <si>
+    <t>Create ideas for how the GUI and user interface will look like</t>
+  </si>
+  <si>
+    <t>Learn Node JS, HTML, and CSS</t>
+  </si>
+  <si>
+    <t>Implement the Tank in the game</t>
+  </si>
+  <si>
+    <t>Implement GUI and UI deisgns</t>
+  </si>
+  <si>
+    <t>Configure the Server and Client Logic together and make them connect</t>
+  </si>
+  <si>
+    <t>Start deciding how game will be played out</t>
+  </si>
+  <si>
+    <t>Write Game Logic Code</t>
+  </si>
+  <si>
+    <t>Learn Node JS and Brainstorm Game functions</t>
   </si>
 </sst>
 </file>
@@ -459,8 +483,8 @@
   </sheetPr>
   <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" thickBottom="1" x14ac:dyDescent="0.25"/>
@@ -499,7 +523,7 @@
     </row>
     <row r="3" spans="1:7" ht="28" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D3" s="2"/>
       <c r="F3" s="1" t="s">
@@ -556,7 +580,7 @@
     <row r="8" spans="1:7" s="6" customFormat="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="1:7" s="8" customFormat="1" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B9" s="8">
         <v>1</v>
@@ -565,21 +589,18 @@
         <v>12</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:7" s="8" customFormat="1" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B10" s="8">
         <v>2</v>
@@ -588,21 +609,18 @@
         <v>10</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="8" customFormat="1" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B11" s="8">
         <v>3</v>
@@ -617,10 +635,7 @@
         <v>25</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:7" s="8" customFormat="1" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -634,16 +649,13 @@
         <v>14</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="8" customFormat="1" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
